--- a/PM_16_03_2019/Progress Monitoring Kishoregonj/Hobiganj Breakup/Package 01/Embankment.xlsx
+++ b/PM_16_03_2019/Progress Monitoring Kishoregonj/Hobiganj Breakup/Package 01/Embankment.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PM_16_03_2019\Progress Monitoring Kishoregonj\Hobiganj Breakup\Package 01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\PM_16_03_2019\Progress Monitoring Kishoregonj\Hobiganj Breakup\Package 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8460"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8460" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="After Appendix" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Sl No</t>
   </si>
@@ -81,6 +82,36 @@
   </si>
   <si>
     <t>48-130</t>
+  </si>
+  <si>
+    <t>Bashira</t>
+  </si>
+  <si>
+    <t>Bitangal</t>
+  </si>
+  <si>
+    <t>Bamboo Profile</t>
+  </si>
+  <si>
+    <t>Earthwork by Excavator</t>
+  </si>
+  <si>
+    <t>Earthwork by Carried Earth</t>
+  </si>
+  <si>
+    <t>Earth Work by Manual Labor</t>
+  </si>
+  <si>
+    <t>Bilogical Protection</t>
+  </si>
+  <si>
+    <t>Additional Lead</t>
+  </si>
+  <si>
+    <t>Close Turfing</t>
+  </si>
+  <si>
+    <t>Royalty</t>
   </si>
 </sst>
 </file>
@@ -111,15 +142,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -155,11 +192,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +240,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,6 +759,266 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1269.3130000000001</v>
+      </c>
+      <c r="F2" s="12">
+        <v>10</v>
+      </c>
+      <c r="G2" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11">
+        <v>315.07499999999999</v>
+      </c>
+      <c r="F3" s="12">
+        <v>93</v>
+      </c>
+      <c r="G3" s="13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="11">
+        <v>147.32400000000001</v>
+      </c>
+      <c r="F4" s="12">
+        <v>83001.47</v>
+      </c>
+      <c r="G4" s="13">
+        <v>71762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="11">
+        <v>380.70600000000002</v>
+      </c>
+      <c r="F5" s="12">
+        <v>11573.19</v>
+      </c>
+      <c r="G5" s="13">
+        <v>3936.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="11">
+        <v>205.17400000000001</v>
+      </c>
+      <c r="F6" s="12">
+        <v>13467.64</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11">
+        <v>24.260999999999999</v>
+      </c>
+      <c r="F7" s="12">
+        <v>12706.11</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11">
+        <v>28.285</v>
+      </c>
+      <c r="F8" s="12">
+        <v>116250</v>
+      </c>
+      <c r="G8" s="13">
+        <v>87500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11">
+        <v>16.228000000000002</v>
+      </c>
+      <c r="F9" s="12">
+        <v>13467.64</v>
+      </c>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11">
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="F10" s="12">
+        <v>93000</v>
+      </c>
+      <c r="G10" s="14">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="15">
+        <f>SUMPRODUCT(E2:E10,F2:F10)</f>
+        <v>23721568.15941</v>
+      </c>
+      <c r="G11" s="15">
+        <f>SUMPRODUCT(E2:E10,G2:G10)</f>
+        <v>14928572.45448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -683,7 +1029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
